--- a/Bugs_tracking/VietVictory_BugTracking_Hien.xlsx
+++ b/Bugs_tracking/VietVictory_BugTracking_Hien.xlsx
@@ -1110,7 +1110,49 @@
              Thieu tai khoan PL cua VAT </t>
   </si>
   <si>
-    <t>[02-Oct Hien] 
+    <t>[30-Sep Hien] 
+- Disable currency in tab MT910, get value of Currency from tab Main
+- Hide "Nostro Account" on UI, need to check impact on DB
+- Remove "Ordering Institution Address 1/2/3" and "intermediary Address 1/2/3" labels</t>
+  </si>
+  <si>
+    <t>[30-Sep Hien]
+- Changed "Transfer Slip" to "Phieu Chuyen Khoan"</t>
+  </si>
+  <si>
+    <t>[02-Oct Hien]
+- Report file is exported
+- Gettting data from DB to fill in export file (Ongoing)
+[30-Sep Hien]
+- Add function to report Phieu Xuat Ngoai Bang
+- Check for template of Phieu Xuat Ngoai Bang with a.Nguyen</t>
+  </si>
+  <si>
+    <t>[02-Oct Hien]
+Done
+[28-July-2015][BIS] Raised Bug62 to check. Anh Nguyen check lai dum, day co phai la new Requirement?</t>
+  </si>
+  <si>
+    <t>[03-Oct Hien]
+- Removed filed
+- Confirm with aNguyen for formual which is used to calculate drFromAmmount</t>
+  </si>
+  <si>
+    <t>[03-Oct Hien]
+Done
+[1-10 Hien]
+- Removed filed</t>
+  </si>
+  <si>
+    <t>[03-10 Hien]
+- added number as required 
+- confirm a.Nguyen for number at "Address" fill or not fill number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[04-Oct Hien]
+- confirmed wih aNguyen, don't need PL for VAT.
+- Added space between "USD" and value
+[02-Oct Hien] 
 - Confirm with aNguyen for value of PL account at total VAT. There're many PL accounts, which PL should be shown.
 [30-Sep Hien]
 - Hide Oversea Mnus &amp; Plus
@@ -1119,52 +1161,14 @@
 2.Display value of amount (Tab 910) = Drawing Amount (Main) -BB + BC
 --&gt; lam sau
 Lưu ý: Phiếu báo có, Nợ tk Nostro tabMain/field 19, Có hoặc tk KH tabMain (Drawer) hoặc tk Thu Chi Hộ
-Check voi aNguyen vao T2</t>
-  </si>
-  <si>
-    <t>[30-Sep Hien] 
-- Disable currency in tab MT910, get value of Currency from tab Main
-- Hide "Nostro Account" on UI, need to check impact on DB
-- Remove "Ordering Institution Address 1/2/3" and "intermediary Address 1/2/3" labels</t>
-  </si>
-  <si>
-    <t>[30-Sep Hien]
-- Changed "Transfer Slip" to "Phieu Chuyen Khoan"</t>
-  </si>
-  <si>
-    <t>[02-Oct Hien]
-- Report file is exported
-- Gettting data from DB to fill in export file (Ongoing)
-[30-Sep Hien]
-- Add function to report Phieu Xuat Ngoai Bang
-- Check for template of Phieu Xuat Ngoai Bang with a.Nguyen</t>
-  </si>
-  <si>
-    <t>[02-Oct Hien]
-Done
-[28-July-2015][BIS] Raised Bug62 to check. Anh Nguyen check lai dum, day co phai la new Requirement?</t>
-  </si>
-  <si>
-    <t>[03-Oct Hien]
-- Removed filed
-- Confirm with aNguyen for formual which is used to calculate drFromAmmount</t>
-  </si>
-  <si>
-    <t>[03-Oct Hien]
-Done
-[1-10 Hien]
-- Removed filed</t>
-  </si>
-  <si>
-    <t>[03-10 Hien]
-- added number as required 
-- confirm a.Nguyen for number at "Address" fill or not fill number</t>
+Check voi aNguyen vao T2
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2268,10 +2272,10 @@
   <dimension ref="A2:L97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L48" sqref="L48"/>
+      <selection pane="bottomRight" activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3672,7 +3676,7 @@
         <v>17</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -3692,7 +3696,7 @@
         <v>17</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -3754,7 +3758,7 @@
         <v>16</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
@@ -3833,7 +3837,7 @@
         <v>17</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -3856,7 +3860,7 @@
         <v>16</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -4198,7 +4202,7 @@
         <v>17</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -4276,7 +4280,7 @@
         <v>17</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -4302,7 +4306,7 @@
         <v>17</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="159" customHeight="1" x14ac:dyDescent="0.25">

--- a/Bugs_tracking/VietVictory_BugTracking_Hien.xlsx
+++ b/Bugs_tracking/VietVictory_BugTracking_Hien.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="310">
   <si>
     <t>Category</t>
   </si>
@@ -887,10 +887,6 @@
     <t>[Nghia] anh Nguyen check lai loi nay dum em, hien tai minh cung ko tinh VAT cho BB va BC, voi lai tren testing site, Party Charged van con enable, no nen read only.</t>
   </si>
   <si>
-    <t>[30-July-2015]BIS- Hien tai Accept va Register su dung chung function, chung VAT document template.
-[28-July-2015] [BIS] Raised Bug61 to chek</t>
-  </si>
-  <si>
     <t>- Khong in duoc</t>
   </si>
   <si>
@@ -1121,14 +1117,6 @@
   </si>
   <si>
     <t>[02-Oct Hien]
-- Report file is exported
-- Gettting data from DB to fill in export file (Ongoing)
-[30-Sep Hien]
-- Add function to report Phieu Xuat Ngoai Bang
-- Check for template of Phieu Xuat Ngoai Bang with a.Nguyen</t>
-  </si>
-  <si>
-    <t>[02-Oct Hien]
 Done
 [28-July-2015][BIS] Raised Bug62 to check. Anh Nguyen check lai dum, day co phai la new Requirement?</t>
   </si>
@@ -1149,7 +1137,9 @@
 - confirm a.Nguyen for number at "Address" fill or not fill number</t>
   </si>
   <si>
-    <t xml:space="preserve">[04-Oct Hien]
+    <t xml:space="preserve">[6-10 Hien]
+Done except VAT NO, Store Procudure's working fine but there's not information stored in DB (table BOUTGOINGCOLLECTIONPAYMENTCHARGES, check with aNguyen to get more information)
+[04-Oct Hien]
 - confirmed wih aNguyen, don't need PL for VAT.
 - Added space between "USD" and value
 [02-Oct Hien] 
@@ -1164,11 +1154,36 @@
 Check voi aNguyen vao T2
 </t>
   </si>
+  <si>
+    <t>[6-Oct Hien] Done
+[02-Oct Hien]
+- Report file is exported
+- Gettting data from DB to fill in export file (Ongoing)
+[30-Sep Hien]
+- Add function to report Phieu Xuat Ngoai Bang
+- Check for template of Phieu Xuat Ngoai Bang with a.Nguyen</t>
+  </si>
+  <si>
+    <t>[06-Oct Hien]
+Ongoing, will be done by today
+[30-July-2015]BIS- Hien tai Accept va Register su dung chung function, chung VAT document template.
+[28-July-2015] [BIS] Raised Bug61 to chek</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
+    <t>[06-Oct Hien]
+Ongoing, will try to finish by tomorrow</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="B1dd\-mmm\-yy"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1328,7 +1343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1384,6 +1399,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2071,9 +2089,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -2101,7 +2119,7 @@
       </c>
       <c r="C3" s="7">
         <f>COUNTIF(Table1[Status],Table2[[#This Row],[Status]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>197</v>
@@ -2120,7 +2138,7 @@
       </c>
       <c r="C4" s="7">
         <f>COUNTIF(Table1[Status],Table2[[#This Row],[Status]])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -2136,7 +2154,7 @@
       </c>
       <c r="C5" s="7">
         <f>COUNTIF(Table1[Status],Table2[[#This Row],[Status]])</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>196</v>
@@ -2174,7 +2192,7 @@
       </c>
       <c r="C7" s="7">
         <f>COUNTIF(Table1[Status],Table2[[#This Row],[Status]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>198</v>
@@ -2225,7 +2243,7 @@
       </c>
       <c r="C10" s="8">
         <f>COUNTIF(Table1[Status],Table2[[#This Row],[Status]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>194</v>
@@ -2272,10 +2290,10 @@
   <dimension ref="A2:L97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L55" sqref="L55"/>
+      <selection pane="bottomRight" activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3672,11 +3690,17 @@
       <c r="E47" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="H47" s="21">
+        <v>42280</v>
+      </c>
+      <c r="I47" s="21">
+        <v>42280</v>
+      </c>
       <c r="J47" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -3690,13 +3714,19 @@
         <v>178</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
+      </c>
+      <c r="H48" s="21">
+        <v>42277</v>
+      </c>
+      <c r="I48" s="21">
+        <v>42277</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -3704,26 +3734,26 @@
         <v>23</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3737,7 +3767,7 @@
         <v>182</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>21</v>
@@ -3748,17 +3778,17 @@
       <c r="G52" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H52" s="4">
-        <v>42194</v>
-      </c>
-      <c r="I52" s="4">
-        <v>42194</v>
+      <c r="H52" s="21">
+        <v>42277</v>
+      </c>
+      <c r="I52" s="21">
+        <v>42283</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
@@ -3797,10 +3827,10 @@
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>281</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>21</v>
@@ -3822,7 +3852,7 @@
         <v>187</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>21</v>
@@ -3831,16 +3861,22 @@
         <v>13</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
+      </c>
+      <c r="H55" s="21">
+        <v>42277</v>
+      </c>
+      <c r="I55" s="21">
+        <v>42277</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>189</v>
       </c>
@@ -3851,16 +3887,22 @@
         <v>186</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="H56" s="21">
+        <v>42277</v>
+      </c>
+      <c r="I56" s="21">
+        <v>42283</v>
+      </c>
       <c r="J56" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -3885,10 +3927,10 @@
       <c r="G57" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="21">
         <v>42198</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I57" s="21">
         <v>41833</v>
       </c>
       <c r="J57" s="1" t="s">
@@ -3917,10 +3959,10 @@
       <c r="G58" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58" s="21">
         <v>42201</v>
       </c>
-      <c r="I58" s="4">
+      <c r="I58" s="21">
         <v>42201</v>
       </c>
       <c r="J58" s="1" t="s">
@@ -3949,10 +3991,10 @@
       <c r="G59" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="21">
         <v>42201</v>
       </c>
-      <c r="I59" s="4">
+      <c r="I59" s="21">
         <v>42201</v>
       </c>
       <c r="J59" s="1" t="s">
@@ -3981,10 +4023,10 @@
       <c r="G60" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60" s="21">
         <v>42201</v>
       </c>
-      <c r="I60" s="4">
+      <c r="I60" s="21">
         <v>42201</v>
       </c>
       <c r="J60" s="1" t="s">
@@ -4013,10 +4055,10 @@
       <c r="G61" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H61" s="21">
         <v>42201</v>
       </c>
-      <c r="I61" s="4">
+      <c r="I61" s="21">
         <v>42201</v>
       </c>
       <c r="J61" s="1" t="s">
@@ -4036,6 +4078,8 @@
       <c r="E62" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
       <c r="J62" s="1" t="s">
         <v>192</v>
       </c>
@@ -4062,10 +4106,10 @@
       <c r="G63" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="21">
         <v>42201</v>
       </c>
-      <c r="I63" s="4">
+      <c r="I63" s="21">
         <v>42201</v>
       </c>
       <c r="J63" s="1" t="s">
@@ -4097,10 +4141,10 @@
       <c r="G64" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H64" s="4">
+      <c r="H64" s="21">
         <v>42205</v>
       </c>
-      <c r="I64" s="4">
+      <c r="I64" s="21">
         <v>42205</v>
       </c>
       <c r="J64" s="1" t="s">
@@ -4126,6 +4170,8 @@
       <c r="G65" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
       <c r="J65" s="1" t="s">
         <v>150</v>
       </c>
@@ -4152,10 +4198,10 @@
       <c r="G66" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H66" s="21">
         <v>42215</v>
       </c>
-      <c r="I66" s="4">
+      <c r="I66" s="21">
         <v>42215</v>
       </c>
       <c r="J66" s="1" t="s">
@@ -4165,7 +4211,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>232</v>
       </c>
@@ -4176,13 +4222,17 @@
         <v>231</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>245</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="H67" s="21">
+        <v>42283</v>
+      </c>
+      <c r="I67" s="21"/>
       <c r="J67" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>243</v>
+        <v>307</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -4196,13 +4246,19 @@
         <v>233</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
+      </c>
+      <c r="H68" s="21">
+        <v>42279</v>
+      </c>
+      <c r="I68" s="21">
+        <v>42279</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -4224,10 +4280,10 @@
       <c r="G69" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="21">
         <v>42215</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I69" s="21">
         <v>42215</v>
       </c>
       <c r="J69" s="1" t="s">
@@ -4250,8 +4306,10 @@
       <c r="F70" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
       <c r="J70" s="1" t="s">
-        <v>192</v>
+        <v>19</v>
       </c>
       <c r="L70" s="19" t="s">
         <v>242</v>
@@ -4259,16 +4317,16 @@
     </row>
     <row r="71" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>22</v>
@@ -4276,25 +4334,31 @@
       <c r="F71" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H71" s="21">
+        <v>42280</v>
+      </c>
+      <c r="I71" s="21">
+        <v>42280</v>
+      </c>
       <c r="J71" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>22</v>
@@ -4302,25 +4366,31 @@
       <c r="F72" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H72" s="21">
+        <v>42280</v>
+      </c>
+      <c r="I72" s="21">
+        <v>42280</v>
+      </c>
       <c r="J72" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>22</v>
@@ -4328,23 +4398,30 @@
       <c r="F73" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
       <c r="J73" s="1" t="s">
-        <v>15</v>
+        <v>308</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="74" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>282</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
     </row>
     <row r="75" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -4354,10 +4431,10 @@
         <v>23</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>22</v>
@@ -4365,6 +4442,8 @@
       <c r="F75" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
       <c r="J75" s="1" t="s">
         <v>15</v>
       </c>
@@ -4377,10 +4456,10 @@
         <v>23</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>22</v>
@@ -4388,6 +4467,8 @@
       <c r="F76" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
       <c r="J76" s="1" t="s">
         <v>15</v>
       </c>
@@ -4400,10 +4481,10 @@
         <v>23</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>22</v>
@@ -4411,6 +4492,8 @@
       <c r="F77" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
       <c r="J77" s="1" t="s">
         <v>15</v>
       </c>
@@ -4420,10 +4503,10 @@
         <v>23</v>
       </c>
       <c r="C78" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>21</v>
@@ -4431,6 +4514,8 @@
       <c r="F78" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
       <c r="J78" s="1" t="s">
         <v>15</v>
       </c>
@@ -4438,66 +4523,78 @@
     <row r="79" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B79" s="17"/>
       <c r="C79" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>284</v>
-      </c>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
     </row>
     <row r="80" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B80" s="17"/>
       <c r="C80" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>286</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
     </row>
     <row r="81" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B81" s="17"/>
       <c r="C81" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>287</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
     </row>
     <row r="82" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B82" s="17"/>
       <c r="C82" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>289</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
     </row>
     <row r="83" spans="2:12" ht="135" x14ac:dyDescent="0.25">
       <c r="B83" s="17"/>
       <c r="C83" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
     </row>
     <row r="84" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B84" s="17"/>
       <c r="C84" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>292</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
     </row>
     <row r="85" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>21</v>
@@ -4506,16 +4603,16 @@
         <v>13</v>
       </c>
       <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
       <c r="J85" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="K85" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="K85" s="14" t="s">
+      <c r="L85" s="23" t="s">
         <v>259</v>
-      </c>
-      <c r="L85" s="22" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="86" spans="2:12" ht="120" x14ac:dyDescent="0.25">
@@ -4523,10 +4620,10 @@
         <v>23</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>21</v>
@@ -4535,25 +4632,25 @@
         <v>12</v>
       </c>
       <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
       <c r="J86" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K86" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="L86" s="23"/>
+        <v>258</v>
+      </c>
+      <c r="L86" s="24"/>
     </row>
     <row r="87" spans="2:12" ht="210" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>21</v>
@@ -4562,10 +4659,10 @@
         <v>12</v>
       </c>
       <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
       <c r="J87" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K87" s="15" t="s">
         <v>21</v>
@@ -4577,10 +4674,10 @@
         <v>23</v>
       </c>
       <c r="C88" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>21</v>
@@ -4588,8 +4685,10 @@
       <c r="F88" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
       <c r="J88" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>21</v>
@@ -4597,10 +4696,10 @@
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C89" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>21</v>
@@ -4609,18 +4708,20 @@
         <v>12</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>274</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
     </row>
     <row r="90" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>21</v>
@@ -4628,16 +4729,18 @@
       <c r="F90" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
     </row>
     <row r="91" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>21</v>
@@ -4645,13 +4748,15 @@
       <c r="F91" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>21</v>
@@ -4660,15 +4765,17 @@
         <v>12</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>274</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
     </row>
     <row r="93" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C93" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>21</v>
@@ -4676,16 +4783,18 @@
       <c r="F93" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
       <c r="J93" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C94" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>21</v>
@@ -4693,16 +4802,26 @@
       <c r="F94" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
     </row>
     <row r="95" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C95" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="H95" s="21"/>
+      <c r="I95" s="21"/>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+    </row>
+    <row r="97" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D97" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D97" s="1" t="s">
-        <v>294</v>
-      </c>
+      <c r="H97" s="21"/>
+      <c r="I97" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Bugs_tracking/VietVictory_BugTracking_Hien.xlsx
+++ b/Bugs_tracking/VietVictory_BugTracking_Hien.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="309">
   <si>
     <t>Category</t>
   </si>
@@ -1170,10 +1170,9 @@
 [28-July-2015] [BIS] Raised Bug61 to chek</t>
   </si>
   <si>
-    <t>Ongoing</t>
-  </si>
-  <si>
-    <t>[06-Oct Hien]
+    <t>[09-Oct Hien]
+Done
+[06-Oct Hien]
 Ongoing, will try to finish by tomorrow</t>
   </si>
 </sst>
@@ -2290,10 +2289,10 @@
   <dimension ref="A2:L97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J70" sqref="J70"/>
+      <selection pane="bottomRight" activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4401,10 +4400,10 @@
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
       <c r="J73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L73" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="74" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -4470,7 +4469,7 @@
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
       <c r="J76" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4495,7 +4494,7 @@
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
       <c r="J77" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4517,7 +4516,7 @@
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -4541,6 +4540,9 @@
       </c>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
+      <c r="J80" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="81" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B81" s="17"/>
@@ -4552,6 +4554,9 @@
       </c>
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
+      <c r="J81" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="82" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B82" s="17"/>
@@ -4563,6 +4568,9 @@
       </c>
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
+      <c r="J82" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="83" spans="2:12" ht="135" x14ac:dyDescent="0.25">
       <c r="B83" s="17"/>
@@ -4585,6 +4593,9 @@
       </c>
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
+      <c r="J84" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="85" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">

--- a/Bugs_tracking/VietVictory_BugTracking_Hien.xlsx
+++ b/Bugs_tracking/VietVictory_BugTracking_Hien.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="309">
   <si>
     <t>Category</t>
   </si>
@@ -2289,10 +2289,10 @@
   <dimension ref="A2:L97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J75" sqref="J75"/>
+      <selection pane="bottomRight" activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4444,7 +4444,7 @@
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
       <c r="J75" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4582,6 +4582,9 @@
       </c>
       <c r="H83" s="21"/>
       <c r="I83" s="21"/>
+      <c r="J83" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="84" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B84" s="17"/>

--- a/Bugs_tracking/VietVictory_BugTracking_Hien.xlsx
+++ b/Bugs_tracking/VietVictory_BugTracking_Hien.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="329">
   <si>
     <t>Category</t>
   </si>
@@ -903,12 +903,6 @@
     <t>Export Documentary Processing/Settlement</t>
   </si>
   <si>
-    <t xml:space="preserve">Dựa vào số TF để xác định đó là SP hay MA, sau khi gõ số TF thì trường này tự động lấy giá trị SP/MA tương ứng
-- Neu Adising LC/LC Type la (ELCM,ELCP,ELCS) la SP
-- Neu Adising LC/LC Type la (ELCA,ELCD,ELCU) la MA
-</t>
-  </si>
-  <si>
     <t>Export Documentary Processing/Settlement
 Tab Main/1.1 Draw Type</t>
   </si>
@@ -939,9 +933,6 @@
   <si>
     <t>Lưu ý check lại số tiền bằng chữ ở các phiếu, hóa đơn
 (vd: EUR thì ko có chữ "đồng"…)</t>
-  </si>
-  <si>
-    <t>New arise</t>
   </si>
   <si>
     <t>Tất cả các lỗi này đã email Anh Nguyên trước đây</t>
@@ -1174,6 +1165,72 @@
 Done
 [06-Oct Hien]
 Ongoing, will try to finish by tomorrow</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Bug 69</t>
+  </si>
+  <si>
+    <t>Bug 70</t>
+  </si>
+  <si>
+    <t>Bug 71</t>
+  </si>
+  <si>
+    <t>Bug 72</t>
+  </si>
+  <si>
+    <t>Bug 73</t>
+  </si>
+  <si>
+    <t>Bug 74</t>
+  </si>
+  <si>
+    <t>Bug 75</t>
+  </si>
+  <si>
+    <t>Bug 76</t>
+  </si>
+  <si>
+    <t>Bug 77</t>
+  </si>
+  <si>
+    <t>Bug 78</t>
+  </si>
+  <si>
+    <t>Bug 79</t>
+  </si>
+  <si>
+    <t>Bug 80</t>
+  </si>
+  <si>
+    <t>Bug 81</t>
+  </si>
+  <si>
+    <t>Bug 82</t>
+  </si>
+  <si>
+    <t>Bug 83</t>
+  </si>
+  <si>
+    <t>Bug 84</t>
+  </si>
+  <si>
+    <t>Bug 85</t>
+  </si>
+  <si>
+    <t>Bug 86</t>
+  </si>
+  <si>
+    <t>Bug 87</t>
+  </si>
+  <si>
+    <t>Partial fixed</t>
+  </si>
+  <si>
+    <t>Check with aNguyen data in DataBase</t>
   </si>
 </sst>
 </file>
@@ -1417,48 +1474,46 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="48">
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1661,13 +1716,44 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <color rgb="FF006100"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1709,6 +1795,57 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1727,7 +1864,7 @@
   <autoFilter ref="B2:D11"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Status"/>
-    <tableColumn id="2" name="Counts" dataDxfId="35">
+    <tableColumn id="2" name="Counts" dataDxfId="47">
       <calculatedColumnFormula>COUNTIF(Table1[Status],Table2[[#This Row],[Status]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Remark"/>
@@ -1741,7 +1878,7 @@
   <autoFilter ref="F2:H9"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Category"/>
-    <tableColumn id="2" name="Bugs" dataDxfId="34">
+    <tableColumn id="2" name="Bugs" dataDxfId="46">
       <calculatedColumnFormula>COUNTIF(Sheet1!$B:$B,Table3[[#This Row],[Category]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Remarks"/>
@@ -1751,7 +1888,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:L72" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:L72" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="A2:L72">
     <filterColumn colId="1">
       <filters>
@@ -1767,18 +1904,18 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" name="BugNo" dataDxfId="11"/>
-    <tableColumn id="2" name="Category" dataDxfId="10"/>
-    <tableColumn id="3" name="Title" dataDxfId="9"/>
-    <tableColumn id="4" name="Description" dataDxfId="8"/>
-    <tableColumn id="12" name="Type" dataDxfId="7"/>
-    <tableColumn id="5" name="Severiry" dataDxfId="6"/>
-    <tableColumn id="6" name="Asignee" dataDxfId="5"/>
-    <tableColumn id="7" name="Start Date" dataDxfId="4"/>
-    <tableColumn id="8" name="End Date" dataDxfId="3"/>
-    <tableColumn id="11" name="Status" dataDxfId="2"/>
-    <tableColumn id="9" name="Path" dataDxfId="1"/>
-    <tableColumn id="10" name="Remark" dataDxfId="0"/>
+    <tableColumn id="1" name="BugNo" dataDxfId="43"/>
+    <tableColumn id="2" name="Category" dataDxfId="42"/>
+    <tableColumn id="3" name="Title" dataDxfId="41"/>
+    <tableColumn id="4" name="Description" dataDxfId="40"/>
+    <tableColumn id="12" name="Type" dataDxfId="39"/>
+    <tableColumn id="5" name="Severiry" dataDxfId="38"/>
+    <tableColumn id="6" name="Asignee" dataDxfId="37"/>
+    <tableColumn id="7" name="Start Date" dataDxfId="36"/>
+    <tableColumn id="8" name="End Date" dataDxfId="35"/>
+    <tableColumn id="11" name="Status" dataDxfId="34"/>
+    <tableColumn id="9" name="Path" dataDxfId="33"/>
+    <tableColumn id="10" name="Remark" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2262,16 +2399,16 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B15">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"Not Start"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>"On-Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
       <formula>"New"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2289,10 +2426,10 @@
   <dimension ref="A2:L97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J76" sqref="J76"/>
+      <selection pane="bottomRight" activeCell="K92" sqref="K92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3699,7 +3836,7 @@
         <v>17</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -3713,7 +3850,7 @@
         <v>178</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H48" s="21">
         <v>42277</v>
@@ -3725,7 +3862,7 @@
         <v>17</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -3733,26 +3870,26 @@
         <v>23</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3766,7 +3903,7 @@
         <v>182</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>21</v>
@@ -3787,7 +3924,7 @@
         <v>17</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
@@ -3826,10 +3963,10 @@
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>21</v>
@@ -3851,7 +3988,7 @@
         <v>187</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>21</v>
@@ -3860,7 +3997,7 @@
         <v>13</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H55" s="21">
         <v>42277</v>
@@ -3872,7 +4009,7 @@
         <v>17</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="105" x14ac:dyDescent="0.25">
@@ -3901,7 +4038,7 @@
         <v>17</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -4231,7 +4368,7 @@
         <v>17</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -4257,7 +4394,7 @@
         <v>17</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -4316,16 +4453,16 @@
     </row>
     <row r="71" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>22</v>
@@ -4343,21 +4480,21 @@
         <v>17</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>22</v>
@@ -4375,18 +4512,18 @@
         <v>17</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>246</v>
@@ -4403,12 +4540,12 @@
         <v>17</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="74" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>23</v>
@@ -4417,23 +4554,23 @@
         <v>247</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
     </row>
-    <row r="75" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>21</v>
+        <v>308</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>248</v>
+        <v>307</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>22</v>
@@ -4449,16 +4586,16 @@
     </row>
     <row r="76" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>21</v>
+        <v>309</v>
       </c>
       <c r="B76" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>22</v>
@@ -4474,16 +4611,16 @@
     </row>
     <row r="77" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>21</v>
+        <v>310</v>
       </c>
       <c r="B77" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>22</v>
@@ -4498,14 +4635,17 @@
       </c>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="B78" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C78" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>21</v>
@@ -4520,23 +4660,32 @@
       </c>
     </row>
     <row r="79" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="B79" s="17"/>
       <c r="C79" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
+      <c r="J79" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="80" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="B80" s="17"/>
       <c r="C80" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
@@ -4544,13 +4693,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B81" s="17"/>
       <c r="C81" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
@@ -4558,13 +4707,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="B82" s="17"/>
       <c r="C82" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
@@ -4572,13 +4724,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="2:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="B83" s="17"/>
       <c r="C83" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H83" s="21"/>
       <c r="I83" s="21"/>
@@ -4586,13 +4741,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>316</v>
+      </c>
       <c r="B84" s="17"/>
       <c r="C84" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
@@ -4600,15 +4758,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="B85" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>21</v>
@@ -4620,24 +4781,27 @@
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
       <c r="J85" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="L85" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="K85" s="14" t="s">
+    </row>
+    <row r="86" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="L85" s="23" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="86" spans="2:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>21</v>
@@ -4649,22 +4813,25 @@
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
       <c r="J86" s="15" t="s">
-        <v>260</v>
+        <v>17</v>
       </c>
       <c r="K86" s="15" t="s">
         <v>258</v>
       </c>
       <c r="L86" s="24"/>
     </row>
-    <row r="87" spans="2:12" ht="210" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="B87" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>21</v>
@@ -4676,22 +4843,25 @@
       <c r="H87" s="21"/>
       <c r="I87" s="21"/>
       <c r="J87" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K87" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="L87" s="16"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="K87" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L87" s="16"/>
-    </row>
-    <row r="88" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B88" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>21</v>
@@ -4702,18 +4872,21 @@
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
       <c r="J88" s="1" t="s">
-        <v>263</v>
+        <v>17</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>321</v>
+      </c>
       <c r="C89" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>21</v>
@@ -4722,20 +4895,23 @@
         <v>12</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H89" s="21"/>
       <c r="I89" s="21"/>
     </row>
-    <row r="90" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>322</v>
+      </c>
       <c r="B90" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>21</v>
@@ -4745,16 +4921,22 @@
       </c>
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
-    </row>
-    <row r="91" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="J90" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="B91" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>21</v>
@@ -4764,13 +4946,22 @@
       </c>
       <c r="H91" s="21"/>
       <c r="I91" s="21"/>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J91" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="B92" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>21</v>
@@ -4779,17 +4970,20 @@
         <v>12</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H92" s="21"/>
       <c r="I92" s="21"/>
     </row>
-    <row r="93" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>325</v>
+      </c>
       <c r="C93" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>21</v>
@@ -4800,15 +4994,18 @@
       <c r="H93" s="21"/>
       <c r="I93" s="21"/>
       <c r="J93" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="C94" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>21</v>
@@ -4818,21 +5015,24 @@
       </c>
       <c r="H94" s="21"/>
       <c r="I94" s="21"/>
-    </row>
-    <row r="95" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="J94" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C95" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H95" s="21"/>
       <c r="I95" s="21"/>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H96" s="21"/>
       <c r="I96" s="21"/>
     </row>
     <row r="97" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D97" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H97" s="21"/>
       <c r="I97" s="21"/>
@@ -4842,72 +5042,100 @@
     <mergeCell ref="L85:L86"/>
   </mergeCells>
   <conditionalFormatting sqref="J60 J62 J64:J68 J1:J58 J70:J1048576">
-    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"On-hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"New"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
       <formula>"Not Reproducible"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J59">
-    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"On-hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"New"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>"Not Reproducible"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J61">
-    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"On-hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"New"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>"Not Reproducible"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J63">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"On-hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"New"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>"Not Reproducible"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J69">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"On-hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"New"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>"Not Reproducible"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K86">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"On-hold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"New"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"Fixed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>"Not Reproducible"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K87">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"On-hold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"New"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Fixed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Not Reproducible"</formula>
     </cfRule>
   </conditionalFormatting>
